--- a/整流と平滑化/data.xlsx
+++ b/整流と平滑化/data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r05i42\Documents\工学実験\Reports\整流と平滑化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA05CD-43E5-43A1-B77C-12A2792CD659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C667BF42-3979-470F-8CD7-2C0BD55785CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="current" sheetId="4" r:id="rId2"/>
     <sheet name="ripple" sheetId="2" r:id="rId3"/>
     <sheet name="voltage" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="13">
   <si>
     <t>Rl</t>
     <phoneticPr fontId="18"/>
@@ -833,7 +833,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>負荷抵抗による交流電圧の変化</a:t>
+              <a:t>負荷抵抗による直流電流の変化</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
@@ -887,15 +887,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$M$3</c:f>
+              <c:f>current!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -914,11 +914,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$N$2:$Q$2</c:f>
+              <c:f>current!$H$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -936,32 +948,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>voltage!$N$3:$Q$3</c:f>
+              <c:f>current!$H$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.8</c:v>
+                  <c:v>50.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>30.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25</c:v>
+                  <c:v>16.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52</c:v>
+                  <c:v>0.70199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BAD-45C8-AD81-94A844BE0E57}"/>
+              <c16:uniqueId val="{00000001-568E-4EFF-A5E0-61D99A7A7286}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -970,7 +982,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$M$4</c:f>
+              <c:f>current!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -989,11 +1001,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$N$2:$Q$2</c:f>
+              <c:f>current!$H$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1011,32 +1035,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>voltage!$N$4:$Q$4</c:f>
+              <c:f>current!$H$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15</c:v>
+                  <c:v>25.77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>19.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.08</c:v>
+                  <c:v>12.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                  <c:v>6.2080000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8BAD-45C8-AD81-94A844BE0E57}"/>
+              <c16:uniqueId val="{00000002-568E-4EFF-A5E0-61D99A7A7286}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1045,7 +1069,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$M$5</c:f>
+              <c:f>current!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1064,11 +1088,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$N$2:$Q$2</c:f>
+              <c:f>current!$H$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1086,32 +1122,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>voltage!$N$5:$Q$5</c:f>
+              <c:f>current!$H$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>17.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>14.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8BAD-45C8-AD81-94A844BE0E57}"/>
+              <c16:uniqueId val="{00000004-568E-4EFF-A5E0-61D99A7A7286}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1123,11 +1159,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1001072863"/>
         <c:axId val="1001069535"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1001072863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1135,8 +1170,8 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1173,11 +1208,9 @@
         </c:txPr>
         <c:crossAx val="1001069535"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="100"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1001069535"/>
         <c:scaling>
@@ -1231,8 +1264,8 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1001072863"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1348,12 +1381,8 @@
               <a:t>負荷抵抗による直流電圧の変化</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>(π</a:t>
+              <a:t>(L</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -1403,15 +1432,102 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$G$3</c:f>
+              <c:f>voltage!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>voltage!$H$8:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>voltage!$H$9:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.549999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B47F-4A7B-9CE4-A2F5B78BB8AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>voltage!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1426,11 +1542,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>voltage!$H$2:$K$2</c:f>
+              <c:f>voltage!$H$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1451,21 +1579,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>voltage!$H$3:$K$3</c:f>
+              <c:f>voltage!$H$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24.43</c:v>
+                  <c:v>25.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.28</c:v>
+                  <c:v>29.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.03</c:v>
+                  <c:v>32.130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.75</c:v>
+                  <c:v>34.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1473,157 +1601,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-568B-43D3-B588-A210488CFE60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>voltage!$H$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$H$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>12.85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-568B-43D3-B588-A210488CFE60}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>voltage!$H$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$H$5:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27.42</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-568B-43D3-B588-A210488CFE60}"/>
+              <c16:uniqueId val="{00000003-B47F-4A7B-9CE4-A2F5B78BB8AD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1635,6 +1613,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1001072863"/>
         <c:axId val="1001069535"/>
@@ -1857,7 +1836,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>負荷抵抗による直流電圧の変化</a:t>
+              <a:t>段数による直流電圧の変化</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -1875,6 +1854,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24547158833230376"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1915,11 +1902,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$G$9</c:f>
+              <c:f>voltage!$H$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1936,44 +1923,17 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>voltage!$H$8:$K$8</c:f>
+              <c:f>voltage!$H$9:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$H$9:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>24.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.97</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.549999999999997</c:v>
+                  <c:v>25.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,20 +1941,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B47F-4A7B-9CE4-A2F5B78BB8AD}"/>
+              <c16:uniqueId val="{00000001-4BEB-4973-8CAE-D586BD83F509}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$G$10</c:f>
+              <c:f>voltage!$I$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2002,7 +1962,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2011,44 +1971,17 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>voltage!$H$8:$K$8</c:f>
+              <c:f>voltage!$I$9:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$H$10:$K$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>25.15</c:v>
+                  <c:v>28.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>29.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.130000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,7 +1989,103 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B47F-4A7B-9CE4-A2F5B78BB8AD}"/>
+              <c16:uniqueId val="{00000002-4BEB-4973-8CAE-D586BD83F509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>voltage!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>voltage!$J$9:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>31.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.130000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4BEB-4973-8CAE-D586BD83F509}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>voltage!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>voltage!$K$9:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>34.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4BEB-4973-8CAE-D586BD83F509}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2290,11 +2319,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>段数による直流電圧の変化</a:t>
+              <a:t>負荷抵抗による交流電圧の変化</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>(L</a:t>
+              <a:t>(π</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2308,14 +2341,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24547158833230376"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2348,19 +2373,19 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$H$8</c:f>
+              <c:f>voltage!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>510</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2375,27 +2400,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$H$9:$H$10</c:f>
+              <c:f>voltage!$N$2:$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24.65</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.15</c:v>
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>voltage!$N$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4BEB-4973-8CAE-D586BD83F509}"/>
+              <c16:uniqueId val="{00000001-4198-43AE-A3D4-DDBC0C7266E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2404,11 +2468,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$I$8</c:f>
+              <c:f>voltage!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2423,88 +2487,79 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$I$9:$I$10</c:f>
+              <c:f>voltage!$N$2:$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.95</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.16</c:v>
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>voltage!$N$4:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4BEB-4973-8CAE-D586BD83F509}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$J$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$J$9:$J$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>31.97</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.130000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4BEB-4973-8CAE-D586BD83F509}"/>
+              <c16:uniqueId val="{00000002-4198-43AE-A3D4-DDBC0C7266E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$K$8</c:f>
+              <c:f>voltage!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5100</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2519,27 +2574,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:val>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$K$9:$K$10</c:f>
+              <c:f>voltage!$N$2:$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>34.549999999999997</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.57</c:v>
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>voltage!$N$5:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4BEB-4973-8CAE-D586BD83F509}"/>
+              <c16:uniqueId val="{00000004-4198-43AE-A3D4-DDBC0C7266E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2551,11 +2645,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1001072863"/>
         <c:axId val="1001069535"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1001072863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2601,11 +2694,8 @@
         </c:txPr>
         <c:crossAx val="1001069535"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1001069535"/>
         <c:scaling>
@@ -2660,7 +2750,7 @@
         </c:txPr>
         <c:crossAx val="1001072863"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2776,12 +2866,8 @@
               <a:t>負荷抵抗による交流電圧の変化</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>(π</a:t>
+              <a:t>(L</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2831,15 +2917,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$M$3</c:f>
+              <c:f>voltage!$M$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2847,18 +2933,30 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>voltage!$N$2:$Q$2</c:f>
+              <c:f>voltage!$N$8:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2879,7 +2977,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>voltage!$N$3:$Q$3</c:f>
+              <c:f>voltage!$N$9:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2893,7 +2991,7 @@
                   <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,91 +2999,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4198-43AE-A3D4-DDBC0C7266E0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>voltage!$N$2:$Q$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$N$4:$Q$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4198-43AE-A3D4-DDBC0C7266E0}"/>
+              <c16:uniqueId val="{00000001-E5A4-4DF0-9FA9-3C480CC4AA8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$M$5</c:f>
+              <c:f>voltage!$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3004,11 +3027,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>voltage!$N$2:$Q$2</c:f>
+              <c:f>voltage!$N$8:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3029,21 +3064,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>voltage!$N$5:$Q$5</c:f>
+              <c:f>voltage!$N$10:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1999999999999999E-2</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,7 +3086,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4198-43AE-A3D4-DDBC0C7266E0}"/>
+              <c16:uniqueId val="{00000003-E5A4-4DF0-9FA9-3C480CC4AA8E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3063,6 +3098,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1001072863"/>
         <c:axId val="1001069535"/>
@@ -3285,439 +3321,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>負荷抵抗による交流電圧の変化</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>(L</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>型</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$M$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>voltage!$N$8:$Q$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$N$9:$Q$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E5A4-4DF0-9FA9-3C480CC4AA8E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$M$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>voltage!$N$8:$Q$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$N$10:$Q$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E5A4-4DF0-9FA9-3C480CC4AA8E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1001072863"/>
-        <c:axId val="1001069535"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1001072863"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1001069535"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1001069535"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1001072863"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
               <a:t>段数による交流電圧の変化</a:t>
             </a:r>
             <a:r>
@@ -4250,7 +3853,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4768,7 +4371,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>負荷抵抗による交流電圧の変化</a:t>
+              <a:t>負荷抵抗による直流電流の変化</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -4818,15 +4421,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$M$9</c:f>
+              <c:f>current!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4845,11 +4448,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$N$8:$Q$8</c:f>
+              <c:f>current!$H$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4867,32 +4482,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>voltage!$N$9:$Q$9</c:f>
+              <c:f>current!$H$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.8</c:v>
+                  <c:v>50.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>30.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.25</c:v>
+                  <c:v>16.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51</c:v>
+                  <c:v>6.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A378-4493-B6AE-25D4356CD998}"/>
+              <c16:uniqueId val="{00000001-E40C-4482-9979-6F36B9A0237B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4901,7 +4516,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$M$10</c:f>
+              <c:f>current!$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4920,11 +4535,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$N$8:$Q$8</c:f>
+              <c:f>current!$H$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4942,32 +4569,32 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>voltage!$N$10:$Q$10</c:f>
+              <c:f>current!$H$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.88</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>30.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59</c:v>
+                  <c:v>16.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24</c:v>
+                  <c:v>6.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A378-4493-B6AE-25D4356CD998}"/>
+              <c16:uniqueId val="{00000003-E40C-4482-9979-6F36B9A0237B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4979,11 +4606,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1001072863"/>
         <c:axId val="1001069535"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1001072863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -5029,11 +4655,8 @@
         </c:txPr>
         <c:crossAx val="1001069535"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1001069535"/>
         <c:scaling>
@@ -5088,7 +4711,7 @@
         </c:txPr>
         <c:crossAx val="1001072863"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5201,32 +4824,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>段数による交流電圧の変化</a:t>
+              <a:t>電流と電圧の関係</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>(π</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>型</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.22864476796401068"/>
-          <c:y val="3.6791174007466176E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5259,25 +4861,286 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$N$2</c:f>
+              <c:f>current!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>510</c:v>
+                  <c:v>コンデンサ1個</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>current!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>current!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C73-4908-92A3-CFBF25219F76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>current!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>π型平滑回路1段</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>current!$B$10:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2080000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>current!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C73-4908-92A3-CFBF25219F76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>current!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>π型平滑回路2段</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>current!$B$17:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>current!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C73-4908-92A3-CFBF25219F76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>current!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L型平滑回路1段</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -5286,67 +5149,85 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$M$3:$M$5</c:f>
+              <c:f>current!$B$24:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>30.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>16.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>voltage!$N$3:$N$5</c:f>
+              <c:f>current!$C$24:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.8</c:v>
+                  <c:v>24.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15</c:v>
+                  <c:v>28.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>31.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.549999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F356-4D7A-A900-07394B3FA579}"/>
+              <c16:uniqueId val="{00000004-7C73-4908-92A3-CFBF25219F76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$O$2</c:f>
+              <c:f>current!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>L型平滑回路2段</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -5355,190 +5236,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$M$3:$M$5</c:f>
+              <c:f>current!$B$31:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>30.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>16.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>voltage!$O$3:$O$5</c:f>
+              <c:f>current!$C$31:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>25.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12</c:v>
+                  <c:v>29.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>32.130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F356-4D7A-A900-07394B3FA579}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$P$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>voltage!$M$3:$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$P$3:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F356-4D7A-A900-07394B3FA579}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>voltage!$M$3:$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$Q$3:$Q$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F356-4D7A-A900-07394B3FA579}"/>
+              <c16:uniqueId val="{00000005-7C73-4908-92A3-CFBF25219F76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5546,17 +5308,90 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1001072863"/>
-        <c:axId val="1001069535"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1001072863"/>
+        <c:axId val="660658559"/>
+        <c:axId val="660658143"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="660658559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>出力電流</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5566,8 +5401,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -5594,15 +5429,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1001069535"/>
+        <c:crossAx val="660658143"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1001069535"/>
+        <c:axId val="660658143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5622,14 +5454,88 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>出力電圧</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.1863760007995559E-2"/>
+              <c:y val="0.35764302966402706"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5653,9 +5559,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1001072863"/>
+        <c:crossAx val="660658559"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5666,7 +5572,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5698,6 +5604,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5768,21 +5681,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>段数による交流電圧の変化</a:t>
+              <a:t>段数によるリップル率の変化</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>(L</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>型</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5830,15 +5730,153 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$N$8</c:f>
+              <c:f>ripple!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>510</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ripple!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ripple!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.15554645927138763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1673151750972763E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6436781609195403E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFBF-4753-912B-B81B6E98B630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ripple!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ripple!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ripple!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.8551912568306001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4516129032258056E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6594516594516595E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CFBF-4753-912B-B81B6E98B630}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ripple!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5855,17 +5893,38 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ripple!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>voltage!$N$9:$N$10</c:f>
+              <c:f>ripple!$J$3:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.8</c:v>
+                  <c:v>3.9025913206369028E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.88</c:v>
+                  <c:v>3.2388663967611339E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1044176706827308E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5873,20 +5932,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5E7-49CD-8C3D-F8A97A80F339}"/>
+              <c16:uniqueId val="{00000003-CFBF-4753-912B-B81B6E98B630}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$O$8</c:f>
+              <c:f>ripple!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>5100</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5903,17 +5962,38 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ripple!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>voltage!$O$9:$O$10</c:f>
+              <c:f>ripple!$K$3:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>1.4964028776978418E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>1.2987012987012987E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5645514223194737E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5921,103 +6001,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B5E7-49CD-8C3D-F8A97A80F339}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$P$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$P$9:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B5E7-49CD-8C3D-F8A97A80F339}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$Q$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$Q$9:$Q$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B5E7-49CD-8C3D-F8A97A80F339}"/>
+              <c16:uniqueId val="{00000004-CFBF-4753-912B-B81B6E98B630}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6251,19 +6235,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>段数によるリップル率の変化</a:t>
+              <a:t>負荷抵抗によるリップル率の変化</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24547158833230376"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6300,15 +6276,90 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ripple!$H$2</c:f>
+              <c:f>ripple!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ripple!$H$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
                   <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ripple!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.15554645927138763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8551912568306001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9025913206369028E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4964028776978418E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9DB1-453A-BE65-2FAB4253ED38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ripple!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6327,36 +6378,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ripple!$G$3:$G$5</c:f>
+              <c:f>ripple!$H$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ripple!$H$3:$H$5</c:f>
+              <c:f>ripple!$H$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15554645927138763</c:v>
+                  <c:v>1.1673151750972763E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1673151750972763E-2</c:v>
+                  <c:v>6.4516129032258056E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6436781609195403E-3</c:v>
+                  <c:v>3.2388663967611339E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2987012987012987E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6364,20 +6421,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CFBF-4753-912B-B81B6E98B630}"/>
+              <c16:uniqueId val="{00000006-9DB1-453A-BE65-2FAB4253ED38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ripple!$I$2</c:f>
+              <c:f>ripple!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6396,36 +6453,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ripple!$G$3:$G$5</c:f>
+              <c:f>ripple!$H$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ripple!$I$3:$I$5</c:f>
+              <c:f>ripple!$H$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.8551912568306001E-2</c:v>
+                  <c:v>2.6436781609195403E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4516129032258056E-3</c:v>
+                  <c:v>1.6594516594516595E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6594516594516595E-3</c:v>
+                  <c:v>1.1044176706827308E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5645514223194737E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6433,145 +6496,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CFBF-4753-912B-B81B6E98B630}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ripple!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ripple!$G$3:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ripple!$J$3:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.9025913206369028E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2388663967611339E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1044176706827308E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CFBF-4753-912B-B81B6E98B630}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ripple!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ripple!$G$3:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ripple!$K$3:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.4964028776978418E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2987012987012987E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.5645514223194737E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CFBF-4753-912B-B81B6E98B630}"/>
+              <c16:uniqueId val="{00000007-9DB1-453A-BE65-2FAB4253ED38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6850,11 +6775,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ripple!$G$3</c:f>
+              <c:f>ripple!$G$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6894,21 +6819,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ripple!$H$3:$K$3</c:f>
+              <c:f>ripple!$H$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.15554645927138763</c:v>
+                  <c:v>0.15415821501014199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8551912568306001E-2</c:v>
+                  <c:v>7.9447322970639028E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9025913206369028E-2</c:v>
+                  <c:v>3.9099155458242101E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4964028776978418E-2</c:v>
+                  <c:v>1.4761215629522434E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6916,91 +6841,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9DB1-453A-BE65-2FAB4253ED38}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ripple!$G$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ripple!$H$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ripple!$H$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.1673151750972763E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.4516129032258056E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2388663967611339E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2987012987012987E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9DB1-453A-BE65-2FAB4253ED38}"/>
+              <c16:uniqueId val="{00000000-D725-47D4-84A8-AEB212F5DBDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ripple!$G$5</c:f>
+              <c:f>ripple!$G$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7044,21 +6894,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ripple!$H$5:$K$5</c:f>
+              <c:f>ripple!$H$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.6436781609195403E-3</c:v>
+                  <c:v>7.4751491053677926E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6594516594516595E-3</c:v>
+                  <c:v>3.8751714677640603E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1044176706827308E-3</c:v>
+                  <c:v>1.8362900715841891E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5645514223194737E-4</c:v>
+                  <c:v>6.9424356378362737E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7066,7 +6916,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9DB1-453A-BE65-2FAB4253ED38}"/>
+              <c16:uniqueId val="{00000002-D725-47D4-84A8-AEB212F5DBDF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7300,11 +7150,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>負荷抵抗によるリップル率の変化</a:t>
+              <a:t>段数によるリップル率の変化</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24547158833230376"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7341,15 +7199,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ripple!$G$9</c:f>
+              <c:f>ripple!$H$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7357,7 +7215,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7368,42 +7226,30 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ripple!$H$2:$K$2</c:f>
+              <c:f>ripple!$G$9:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>510</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5100</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ripple!$H$9:$K$9</c:f>
+              <c:f>ripple!$H$9:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.15415821501014199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9447322970639028E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9099155458242101E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4761215629522434E-2</c:v>
+                  <c:v>7.4751491053677926E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7411,7 +7257,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D725-47D4-84A8-AEB212F5DBDF}"/>
+              <c16:uniqueId val="{00000000-71F7-4905-B43D-EC508F249D98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7420,11 +7266,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ripple!$G$10</c:f>
+              <c:f>ripple!$I$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7443,42 +7289,30 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ripple!$H$2:$K$2</c:f>
+              <c:f>ripple!$G$9:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>510</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5100</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ripple!$H$10:$K$10</c:f>
+              <c:f>ripple!$I$9:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.4751491053677926E-2</c:v>
+                  <c:v>7.9447322970639028E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.8751714677640603E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8362900715841891E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9424356378362737E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7486,7 +7320,133 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D725-47D4-84A8-AEB212F5DBDF}"/>
+              <c16:uniqueId val="{00000001-71F7-4905-B43D-EC508F249D98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ripple!$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ripple!$G$9:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ripple!$J$9:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.9099155458242101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8362900715841891E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-71F7-4905-B43D-EC508F249D98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ripple!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ripple!$G$9:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ripple!$K$9:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4761215629522434E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9424356378362737E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-71F7-4905-B43D-EC508F249D98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7720,8 +7680,21 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>段数によるリップル率の変化</a:t>
+              <a:t>段数による直流電圧の変化</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>(π</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>型</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7729,8 +7702,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24547158833230376"/>
-          <c:y val="2.7777777777777776E-2"/>
+          <c:x val="0.22864476796401068"/>
+          <c:y val="3.6791174007466176E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7769,78 +7742,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ripple!$H$8</c:f>
+              <c:f>voltage!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>510</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>ripple!$G$9:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ripple!$H$9:$H$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.15415821501014199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4751491053677926E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-71F7-4905-B43D-EC508F249D98}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ripple!$I$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7859,14 +7769,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ripple!$G$9:$G$10</c:f>
+              <c:f>voltage!$G$3:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7874,15 +7787,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ripple!$I$9:$I$10</c:f>
+              <c:f>voltage!$H$3:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.9447322970639028E-2</c:v>
+                  <c:v>24.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8751714677640603E-2</c:v>
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7890,20 +7806,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-71F7-4905-B43D-EC508F249D98}"/>
+              <c16:uniqueId val="{00000001-8366-43C9-9F57-8547B8E77A04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ripple!$J$8</c:f>
+              <c:f>voltage!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7922,14 +7838,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ripple!$G$9:$G$10</c:f>
+              <c:f>voltage!$G$3:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7937,15 +7856,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ripple!$J$9:$J$10</c:f>
+              <c:f>voltage!$I$3:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.9099155458242101E-2</c:v>
+                  <c:v>29.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8362900715841891E-2</c:v>
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7953,20 +7875,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-71F7-4905-B43D-EC508F249D98}"/>
+              <c16:uniqueId val="{00000002-8366-43C9-9F57-8547B8E77A04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ripple!$K$8</c:f>
+              <c:f>voltage!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5100</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7985,14 +7907,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ripple!$G$9:$G$10</c:f>
+              <c:f>voltage!$G$3:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -8000,15 +7925,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ripple!$K$9:$K$10</c:f>
+              <c:f>voltage!$J$3:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.4761215629522434E-2</c:v>
+                  <c:v>32.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9424356378362737E-3</c:v>
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.920000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8016,7 +7944,76 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-71F7-4905-B43D-EC508F249D98}"/>
+              <c16:uniqueId val="{00000003-8366-43C9-9F57-8547B8E77A04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>voltage!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>voltage!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>voltage!$K$3:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8366-43C9-9F57-8547B8E77A04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8250,7 +8247,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>段数による直流電圧の変化</a:t>
+              <a:t>負荷抵抗による直流電圧の変化</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
@@ -8268,14 +8269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.22864476796401068"/>
-          <c:y val="3.6791174007466176E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8308,19 +8301,106 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$H$2</c:f>
+              <c:f>voltage!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>voltage!$H$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
                   <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>voltage!$H$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-568B-43D3-B588-A210488CFE60}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>voltage!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8335,61 +8415,79 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$G$3:$G$5</c:f>
+              <c:f>voltage!$H$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>voltage!$H$3:$H$5</c:f>
+              <c:f>voltage!$H$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24.43</c:v>
+                  <c:v>12.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.85</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6999999999999993</c:v>
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8366-43C9-9F57-8547B8E77A04}"/>
+              <c16:uniqueId val="{00000002-568B-43D3-B588-A210488CFE60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>voltage!$I$2</c:f>
+              <c:f>voltage!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8404,186 +8502,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>voltage!$G$3:$G$5</c:f>
+              <c:f>voltage!$H$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>voltage!$I$3:$I$5</c:f>
+              <c:f>voltage!$H$5:$K$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>29.28</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.600000000000001</c:v>
+                  <c:v>13.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.86</c:v>
+                  <c:v>19.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8366-43C9-9F57-8547B8E77A04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$J$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>voltage!$G$3:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$J$3:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>32.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19.920000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8366-43C9-9F57-8547B8E77A04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>voltage!$K$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5100</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>voltage!$G$3:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>voltage!$K$3:$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>34.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.42</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8366-43C9-9F57-8547B8E77A04}"/>
+              <c16:uniqueId val="{00000004-568B-43D3-B588-A210488CFE60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8595,11 +8573,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="1001072863"/>
         <c:axId val="1001069535"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="1001072863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -8645,11 +8622,8 @@
         </c:txPr>
         <c:crossAx val="1001069535"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="1001069535"/>
         <c:scaling>
@@ -8704,7 +8678,7 @@
         </c:txPr>
         <c:crossAx val="1001072863"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9023,46 +8997,6 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13034,7 +12968,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13550,8 +13484,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13578,8 +13512,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -13659,11 +13593,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -13674,11 +13603,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -13690,7 +13614,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -13710,9 +13634,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13725,10 +13646,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -13768,22 +13689,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -13888,8 +13810,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14021,19 +13943,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14047,522 +13970,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -17683,22 +17101,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:colOff>193222</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>189139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>21770</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>35379</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>650421</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74839</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5">
+        <xdr:cNvPr id="11" name="グラフ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515CD3AA-5218-4C97-A48E-B13C396AD7EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE497458-1D7C-4A49-8477-F6A6BF39F558}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17721,22 +17139,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>70755</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>42183</xdr:rowOff>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="グラフ 6">
+        <xdr:cNvPr id="12" name="グラフ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC28C4C-C56F-407E-BB61-078DBF9EE0FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352C46EC-3418-4A86-A232-C3C6C2DB5526}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17758,29 +17176,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>24492</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>55790</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="グラフ 7">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65374114-459C-4824-9F3B-93CE0B9DE71A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44D8B68-504B-4189-8CED-CD1E0EE76BF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -17789,44 +17205,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>326571</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>217713</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>92528</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>96610</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="グラフ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC757FA-47D7-4906-A98B-29ECAF6A7867}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18935,10 +18313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4C6AC7-B2F4-41A3-9D6B-C01BDA496387}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -18946,12 +18324,18 @@
     <col min="1" max="1" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18967,8 +18351,38 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>510</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <v>5100</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>510</v>
+      </c>
+      <c r="O2">
+        <v>1000</v>
+      </c>
+      <c r="P2">
+        <v>2000</v>
+      </c>
+      <c r="Q2">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>510</v>
       </c>
@@ -18985,8 +18399,46 @@
         <f>D3/C3</f>
         <v>0.15554645927138763</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>$B3</f>
+        <v>50.07</v>
+      </c>
+      <c r="I3">
+        <f>B4</f>
+        <v>30.55</v>
+      </c>
+      <c r="J3">
+        <f>B5</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="K3">
+        <f>B6</f>
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>D3</f>
+        <v>3.8</v>
+      </c>
+      <c r="O3">
+        <f>D4</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P3">
+        <f>D5</f>
+        <v>1.25</v>
+      </c>
+      <c r="Q3">
+        <f>D6</f>
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -19003,8 +18455,46 @@
         <f t="shared" ref="E4:E6" si="0">D4/C4</f>
         <v>7.8551912568306001E-2</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>B10</f>
+        <v>25.77</v>
+      </c>
+      <c r="I4">
+        <f>B11</f>
+        <v>19.22</v>
+      </c>
+      <c r="J4">
+        <f>B12</f>
+        <v>12.58</v>
+      </c>
+      <c r="K4">
+        <f>B13</f>
+        <v>6.2080000000000002</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f>D10</f>
+        <v>0.15</v>
+      </c>
+      <c r="O4">
+        <f>D11</f>
+        <v>0.12</v>
+      </c>
+      <c r="P4">
+        <f>D12</f>
+        <v>0.08</v>
+      </c>
+      <c r="Q4">
+        <f>D13</f>
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -19021,8 +18511,46 @@
         <f t="shared" si="0"/>
         <v>3.9025913206369028E-2</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f>B17</f>
+        <v>17.420000000000002</v>
+      </c>
+      <c r="I5">
+        <f>B18</f>
+        <v>14.23</v>
+      </c>
+      <c r="J5">
+        <f>B19</f>
+        <v>10.1</v>
+      </c>
+      <c r="K5">
+        <f>B20</f>
+        <v>5.52</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <f>D17</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="O5">
+        <f>D18</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="P5">
+        <f>D19</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q5">
+        <f>D20</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5100</v>
       </c>
@@ -19040,13 +18568,51 @@
         <v>1.4964028776978418E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1"/>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>510</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <v>2000</v>
+      </c>
+      <c r="K8">
+        <v>5100</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>510</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+      <c r="P8">
+        <v>2000</v>
+      </c>
+      <c r="Q8">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -19062,8 +18628,46 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>B24</f>
+        <v>50.52</v>
+      </c>
+      <c r="I9">
+        <f>B25</f>
+        <v>30.23</v>
+      </c>
+      <c r="J9">
+        <f>B26</f>
+        <v>16.38</v>
+      </c>
+      <c r="K9">
+        <f>B27</f>
+        <v>6.97</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <f>D24</f>
+        <v>3.8</v>
+      </c>
+      <c r="O9">
+        <f>D25</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P9">
+        <f>D26</f>
+        <v>1.25</v>
+      </c>
+      <c r="Q9">
+        <f>D27</f>
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>510</v>
       </c>
@@ -19080,8 +18684,46 @@
         <f>D10/C10</f>
         <v>1.1673151750972763E-2</v>
       </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f>B31</f>
+        <v>51.5</v>
+      </c>
+      <c r="I10">
+        <f>B32</f>
+        <v>30.45</v>
+      </c>
+      <c r="J10">
+        <f>B33</f>
+        <v>16.48</v>
+      </c>
+      <c r="K10">
+        <f>B34</f>
+        <v>6.98</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <f>D31</f>
+        <v>1.88</v>
+      </c>
+      <c r="O10">
+        <f>D32</f>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="P10">
+        <f>D33</f>
+        <v>0.59</v>
+      </c>
+      <c r="Q10">
+        <f>D34</f>
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -19099,7 +18741,7 @@
         <v>6.4516129032258056E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -19117,7 +18759,7 @@
         <v>3.2388663967611339E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>5100</v>
       </c>
@@ -19135,12 +18777,12 @@
         <v>1.2987012987012987E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -19429,8 +19071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F543EA-CC50-47F1-82FF-4779EF35A0B3}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20053,8 +19695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7987D8-CEE2-438E-821F-F27F93A301B7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U53" sqref="U53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
